--- a/C_Compiler_CSharp/C_Compiler_CSharp/Card.xlsx
+++ b/C_Compiler_CSharp/C_Compiler_CSharp/Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Documents\A A A C_Compiler_Assembler - CSharp\C_Compiler_CSharp\C_Compiler_CSharp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99C61E83-7C79-4ADF-B64C-F660EC61A4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A75E074-6A7D-439B-B6D7-910BF24D088A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Ralf Björnander</t>
   </si>
@@ -36,86 +36,11 @@
     <t>Magnus Andreasson</t>
   </si>
   <si>
-    <t>Paul Pettersson</t>
-  </si>
-  <si>
-    <t>Cristina Seceleanu</t>
-  </si>
-  <si>
-    <t>Thomas Nolte</t>
-  </si>
-  <si>
-    <t>Jagadish Suryadevara</t>
-  </si>
-  <si>
-    <t>Swedbank</t>
-  </si>
-  <si>
-    <t>EuroCard</t>
-  </si>
-  <si>
     <t>Telia</t>
-  </si>
-  <si>
-    <t>Boomerang</t>
-  </si>
-  <si>
-    <t>Passport Number</t>
-  </si>
-  <si>
-    <t>ACM Member</t>
   </si>
   <si>
     <t>Swedish State Business
 Travel Insurance Certificate</t>
-  </si>
-  <si>
-    <t>Federico Cicchetti</t>
-  </si>
-  <si>
-    <t>Antonio Ciccozzi</t>
-  </si>
-  <si>
-    <t>EnterCard</t>
-  </si>
-  <si>
-    <t>91235606</t>
-  </si>
-  <si>
-    <t>+46-500-430213
-+46-522-652077</t>
-  </si>
-  <si>
-    <t>+46-705-620213</t>
-  </si>
-  <si>
-    <t>+46-739-607382
-+46-21-151741</t>
-  </si>
-  <si>
-    <t>+46-702-837717
-+46-21-151764</t>
-  </si>
-  <si>
-    <t>+46-736-620742
-+46-707-967282
-+46-21-103116</t>
-  </si>
-  <si>
-    <t>+46-21-103178</t>
-  </si>
-  <si>
-    <t>+46-21-151762</t>
-  </si>
-  <si>
-    <t>+46-771-212100
-+46-31-7567900</t>
-  </si>
-  <si>
-    <t>2320 +46-8-4111011</t>
-  </si>
-  <si>
-    <t>7366 +46-8-146767</t>
   </si>
   <si>
     <t>Kammarkollegiet
@@ -124,111 +49,10 @@
 +46-8-58771749</t>
   </si>
   <si>
-    <t>+46-771-910350
-+46-771-990200 m-f 8-21 l-s 10-18</t>
-  </si>
-  <si>
-    <t>4797 +46-8-4111011</t>
-  </si>
-  <si>
-    <t>+46-702-665450
-+46-500-430343
-+46-500-464986</t>
-  </si>
-  <si>
-    <t>+46-706-314149
-+46-500-464179</t>
-  </si>
-  <si>
     <t>Försäkringskassan</t>
   </si>
   <si>
     <t>+46-771-524524</t>
-  </si>
-  <si>
-    <t>Rikard Land</t>
-  </si>
-  <si>
-    <t>Magnus Nolen</t>
-  </si>
-  <si>
-    <t>Madelene Andersson
-Resia AB</t>
-  </si>
-  <si>
-    <t>+46-735-636260, +46-21-403207</t>
-  </si>
-  <si>
-    <t>+46-737-789518, +46-21-403203</t>
-  </si>
-  <si>
-    <t>Hans Hansson</t>
-  </si>
-  <si>
-    <t>+46-21-103163, +46-21-416610</t>
-  </si>
-  <si>
-    <t>Taxi Västerås</t>
-  </si>
-  <si>
-    <t>+46-21-185000</t>
-  </si>
-  <si>
-    <t>Katarina Eriksson
-Resia AB</t>
-  </si>
-  <si>
-    <t>Business +46-278-27495
-Vacation +46-278-27490</t>
-  </si>
-  <si>
-    <t>6KN3J3, SK 903, 10.40-13.35
-YFFXIZ, AA 1905, 17.05-20.10
-YFFXIZ, AA 2348, 12.15-14.30
-6KN3J3, SK 946, 16.25-07.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flyg: Arlanda - Dallas, t.o.r.
-</t>
-  </si>
-  <si>
-    <t>Direct +46-278-27491
-Switch +46-278-27490/95</t>
-  </si>
-  <si>
-    <t>Renaissance Richardson Hotel</t>
-  </si>
-  <si>
-    <t>87740263, phone 1-972-3672000
-900 E Lookout Drive
-Richardson, TX 75082</t>
-  </si>
-  <si>
-    <t>ESTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2YWMVUS-0, 866, 14:05-15:35 
-2HWABWY-0, 866, 08:35-10:05
- </t>
-  </si>
-  <si>
-    <t>Connect Hotel</t>
-  </si>
-  <si>
-    <t>937.243.331, 4862, +46-8-59120050
-12-11-24,15:00 - 12-11-25, 12:00</t>
-  </si>
-  <si>
-    <t>85223239, September 25, 2017</t>
-  </si>
-  <si>
-    <t>R6XBWR99XRH7277K</t>
-  </si>
-  <si>
-    <t>IEEE</t>
-  </si>
-  <si>
-    <t>Registration ID</t>
   </si>
   <si>
     <t>Reseförsäkring Salus Ansvar
@@ -243,30 +67,110 @@
 +46-8-58771776</t>
   </si>
   <si>
-    <t>Tjänsteförsäkring</t>
-  </si>
-  <si>
-    <t>Swebus Flygturen Västerås - Arlanda 5
-Arlanda 5 - Västerås</t>
-  </si>
-  <si>
-    <t>Henrik Jonsson</t>
-  </si>
-  <si>
-    <t>Andreas Johnsen</t>
-  </si>
-  <si>
-    <t>+46-706-803341</t>
-  </si>
-  <si>
-    <t>+46-21-101689</t>
-  </si>
-  <si>
-    <t>Super Shuttle</t>
-  </si>
-  <si>
-    <t>To the Airport 8112170
-From the Airport 8112171</t>
+    <t>Preem Master Card</t>
+  </si>
+  <si>
+    <t>Swedbank Master Card</t>
+  </si>
+  <si>
+    <t>9447 +46 476 58 71 40</t>
+  </si>
+  <si>
+    <t>Swedbank Sjuhärad Master Card
+Enter Card</t>
+  </si>
+  <si>
+    <t>8057 +46 771 22 11 22</t>
+  </si>
+  <si>
+    <t>Supreme Card Master Card
+Resurs Bank</t>
+  </si>
+  <si>
+    <t>6401 +46 33 10 50 60
++46 77 148 00 40</t>
+  </si>
+  <si>
+    <t>9805 +46 77 111 22 33</t>
+  </si>
+  <si>
+    <t>91728315, 8 juli 2021</t>
+  </si>
+  <si>
+    <t>Körkort</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>2384244828, 26 april 2027</t>
+  </si>
+  <si>
+    <t>Nationellt Identitetskort</t>
+  </si>
+  <si>
+    <t>72378811, 8 juli 2021</t>
+  </si>
+  <si>
+    <t>054 101 551 745, 7 juli 2020</t>
+  </si>
+  <si>
+    <t>8075 2004 8400 0027 1509, 4 februari 2020
+12600 - FK Sverige</t>
+  </si>
+  <si>
+    <t>Skövde</t>
+  </si>
+  <si>
+    <t>Kavlanda</t>
+  </si>
+  <si>
+    <t>+46 500 430213</t>
+  </si>
+  <si>
+    <t>+46 522 652077</t>
+  </si>
+  <si>
+    <t>+46 72 384 45 18</t>
+  </si>
+  <si>
+    <t>+46 72 454 74 99</t>
+  </si>
+  <si>
+    <t>+46 73 366 03 09
++46 500 430343
++46 70 266 54 50
++46 500 464986</t>
+  </si>
+  <si>
+    <t>+46 70 631 41 49
++46 500 201947
++46-706-314149
++46-500-464179</t>
+  </si>
+  <si>
+    <t>Boomerang Solutions</t>
+  </si>
+  <si>
+    <t>Mälardalens Studentkår</t>
+  </si>
+  <si>
+    <t>STF</t>
+  </si>
+  <si>
+    <t>Europeiska Sjukförsäkringskortet</t>
+  </si>
+  <si>
+    <t>9752 2382 9775 6670, 30 september 2020</t>
+  </si>
+  <si>
+    <t>+46 20 20 20 24
++46 31 756 79 00
++46 771 21 21 00</t>
+  </si>
+  <si>
+    <t>+46 771 91 03 50, 90 200
++46 771 99 02 00 m-f 8-21 l-s 10-18</t>
   </si>
 </sst>
 </file>
@@ -328,9 +232,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -348,6 +249,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,309 +591,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="51" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="5">
-        <v>91235606</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="5">
-        <v>49281934</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>51</v>
+    </row>
+    <row r="21" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/C_Compiler_CSharp/C_Compiler_CSharp/Card.xlsx
+++ b/C_Compiler_CSharp/C_Compiler_CSharp/Card.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Documents\A A A C_Compiler_Assembler - CSharp\C_Compiler_CSharp\C_Compiler_CSharp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A75E074-6A7D-439B-B6D7-910BF24D088A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AB95DC-3DDD-40FD-9EA7-EFD31B3001F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Ralf Björnander</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Försäkringskassan</t>
-  </si>
-  <si>
-    <t>+46-771-524524</t>
   </si>
   <si>
     <t>Reseförsäkring Salus Ansvar
@@ -94,22 +91,13 @@
     <t>9805 +46 77 111 22 33</t>
   </si>
   <si>
-    <t>91728315, 8 juli 2021</t>
-  </si>
-  <si>
     <t>Körkort</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>2384244828, 26 april 2027</t>
-  </si>
-  <si>
     <t>Nationellt Identitetskort</t>
-  </si>
-  <si>
-    <t>72378811, 8 juli 2021</t>
   </si>
   <si>
     <t>054 101 551 745, 7 juli 2020</t>
@@ -143,12 +131,6 @@
 +46 500 464986</t>
   </si>
   <si>
-    <t>+46 70 631 41 49
-+46 500 201947
-+46-706-314149
-+46-500-464179</t>
-  </si>
-  <si>
     <t>Boomerang Solutions</t>
   </si>
   <si>
@@ -159,9 +141,6 @@
   </si>
   <si>
     <t>Europeiska Sjukförsäkringskortet</t>
-  </si>
-  <si>
-    <t>9752 2382 9775 6670, 30 september 2020</t>
   </si>
   <si>
     <t>+46 20 20 20 24
@@ -171,6 +150,34 @@
   <si>
     <t>+46 771 91 03 50, 90 200
 +46 771 99 02 00 m-f 8-21 l-s 10-18</t>
+  </si>
+  <si>
+    <t>9172 8315, 8 juli 2021</t>
+  </si>
+  <si>
+    <t>7237 8811, 8 juli 2021</t>
+  </si>
+  <si>
+    <t>238 424 828, 26 april 2027</t>
+  </si>
+  <si>
+    <t>9752 2382 9775 6675, 30 september 2020</t>
+  </si>
+  <si>
+    <t>+46 771 524524</t>
+  </si>
+  <si>
+    <t>IMEI1: 867 905 031 607 684
+IMEI2: 867 905 031 639 695
+SN: 9WV7 N183 0201 1038</t>
+  </si>
+  <si>
+    <t>Mobiltelefon *#06#</t>
+  </si>
+  <si>
+    <t>+46 70 631 41 49
++46 500 201947
++46 500 464179</t>
   </si>
 </sst>
 </file>
@@ -591,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -606,18 +613,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -625,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -633,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -641,47 +648,47 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -689,15 +696,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -705,44 +712,44 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>39</v>
@@ -750,18 +757,18 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -770,6 +777,14 @@
       </c>
       <c r="B21" s="6" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/C_Compiler_CSharp/C_Compiler_CSharp/Card.xlsx
+++ b/C_Compiler_CSharp/C_Compiler_CSharp/Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Documents\A A A C_Compiler_Assembler - CSharp\C_Compiler_CSharp\C_Compiler_CSharp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AB95DC-3DDD-40FD-9EA7-EFD31B3001F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67A118F-F3A7-48E2-A706-F10CE57182F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,9 +77,6 @@
 Enter Card</t>
   </si>
   <si>
-    <t>8057 +46 771 22 11 22</t>
-  </si>
-  <si>
     <t>Supreme Card Master Card
 Resurs Bank</t>
   </si>
@@ -175,7 +172,12 @@
     <t>Mobiltelefon *#06#</t>
   </si>
   <si>
-    <t>+46 70 631 41 49
+    <t>5168 1514 7806 8057, 10/21
+ +46 771 22 11 22</t>
+  </si>
+  <si>
+    <t>+46 73 44 24 11
++46 70 631 41 49
 +46 500 201947
 +46 500 464179</t>
   </si>
@@ -193,7 +195,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -239,6 +241,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -248,17 +253,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,61 +603,61 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="31" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -663,132 +665,132 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>40</v>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="78" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>

--- a/C_Compiler_CSharp/C_Compiler_CSharp/Card.xlsx
+++ b/C_Compiler_CSharp/C_Compiler_CSharp/Card.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Documents\A A A C_Compiler_Assembler - CSharp\C_Compiler_CSharp\C_Compiler_CSharp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67A118F-F3A7-48E2-A706-F10CE57182F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCDD08C-053A-4DD2-84A0-489D6B0F1F31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,9 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
